--- a/package/budget subpackage/user_data.xlsx
+++ b/package/budget subpackage/user_data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t xml:space="preserve">Area</t>
   </si>
@@ -34,10 +34,13 @@
     <t xml:space="preserve">Groceries</t>
   </si>
   <si>
-    <t xml:space="preserve">Car</t>
+    <t xml:space="preserve">Travel</t>
   </si>
   <si>
     <t xml:space="preserve">Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gym</t>
   </si>
 </sst>
 </file>
@@ -147,13 +150,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.43"/>
@@ -202,6 +205,14 @@
         <v>100</v>
       </c>
     </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
